--- a/correlations.xlsx
+++ b/correlations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dbuchan/Projects/prison_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D445A7F6-659B-704A-A17F-CEFA428CD524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A673B3A7-18AA-2E4F-B249-733B06FD31CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{9E45C300-0F6E-3D4B-81D6-0FFF5CE6E7D9}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{9E45C300-0F6E-3D4B-81D6-0FFF5CE6E7D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff Correlations" sheetId="11" r:id="rId1"/>
@@ -49,7 +49,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{D9D588D8-5D0D-3F4B-90D0-9CC739BB5B93}" name="prisoner_annotated" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/dbuchan/Projects/prison_analysis/prisoner_annotated.csv" comma="1">
+    <textPr sourceFile="/Users/dbuchan/Projects/prison_analysis/prisoner_annotated.csv" comma="1">
       <textFields count="37">
         <textField/>
         <textField/>
@@ -172,7 +172,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{A105F00C-6ADE-764D-8CDE-3E15749DE107}" name="staff_annotated" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/dbuchan/Projects/prison_analysis/staff_annotated.csv" comma="1">
+    <textPr sourceFile="/Users/dbuchan/Projects/prison_analysis/staff_annotated.csv" comma="1">
       <textFields count="21">
         <textField/>
         <textField/>
@@ -1463,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43F3164-E56D-BC40-8459-BD80D846E41B}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2861,10 +2861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8558CA-9750-D645-8A08-A3B57AE73430}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="B2:U21"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2888,7 +2888,7 @@
     <col min="20" max="21" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2940,17 +2940,17 @@
       <c r="R1" t="s">
         <v>208</v>
       </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
       <c r="T1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U1" t="s">
-        <v>49</v>
-      </c>
-      <c r="V1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>-2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9890,7 +9890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DE0141-EDB9-9245-87E3-50E7CDD082FC}">
   <dimension ref="A1:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="AE1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9929,7 +9929,7 @@
     <col min="38" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
@@ -10152,7 +10152,7 @@
         <v>-0.19900000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -10378,7 +10378,7 @@
         <v>-0.114</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -10491,7 +10491,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>-7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>-0.184</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>55</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>-9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -11395,7 +11395,7 @@
         <v>-7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>-9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="17" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>-0.11799999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -12525,7 +12525,7 @@
         <v>-0.14599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>-3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -12864,7 +12864,7 @@
         <v>-6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -13316,7 +13316,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="31" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -13429,7 +13429,7 @@
         <v>-0.16200000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="33" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -13655,7 +13655,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
@@ -13881,7 +13881,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>65</v>
       </c>
